--- a/SPIN_Inverter_PIN_Mapping.xlsx
+++ b/SPIN_Inverter_PIN_Mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\twalter\Local\Inverter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{260D411D-F877-4DAC-851E-8CE95E8540E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC0D8979-20A3-407D-A349-F64046172CDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{10335776-0D9B-485B-BFEC-E4BDD3F10738}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="72">
   <si>
     <t>PIN number</t>
   </si>
@@ -153,9 +153,6 @@
     <t>PA1</t>
   </si>
   <si>
-    <t>DAC3_OUT1</t>
-  </si>
-  <si>
     <t>HRTIM_CHC1</t>
   </si>
   <si>
@@ -174,12 +171,6 @@
     <t>HRTIM_CHA2</t>
   </si>
   <si>
-    <t>Signal TWIST</t>
-  </si>
-  <si>
-    <t>PC6 (NGND)</t>
-  </si>
-  <si>
     <t>PC12 (STDBY1/)</t>
   </si>
   <si>
@@ -192,24 +183,6 @@
     <t>FDCAN1_TX</t>
   </si>
   <si>
-    <t>VI2Low</t>
-  </si>
-  <si>
-    <t>II2Low</t>
-  </si>
-  <si>
-    <t>VIHigh</t>
-  </si>
-  <si>
-    <t>IIHigh</t>
-  </si>
-  <si>
-    <t>VI1Low</t>
-  </si>
-  <si>
-    <t>II1Low</t>
-  </si>
-  <si>
     <t>ADC3_IN12</t>
   </si>
   <si>
@@ -228,12 +201,6 @@
     <t>DGND</t>
   </si>
   <si>
-    <t>+5VD</t>
-  </si>
-  <si>
-    <t>Signal Inverter</t>
-  </si>
-  <si>
     <t>USART3_TX</t>
   </si>
   <si>
@@ -277,6 +244,12 @@
   </si>
   <si>
     <t>CAN1_STB</t>
+  </si>
+  <si>
+    <t>Signal</t>
+  </si>
+  <si>
+    <t>HRTIM_CHA1</t>
   </si>
 </sst>
 </file>
@@ -397,15 +370,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>244173</xdr:colOff>
+      <xdr:colOff>227391</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>121227</xdr:rowOff>
+      <xdr:rowOff>192438</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>46</xdr:col>
-      <xdr:colOff>162929</xdr:colOff>
+      <xdr:colOff>142972</xdr:colOff>
       <xdr:row>61</xdr:row>
-      <xdr:rowOff>26595</xdr:rowOff>
+      <xdr:rowOff>97806</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -435,8 +408,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="11189264" y="121227"/>
-          <a:ext cx="18702633" cy="10545082"/>
+          <a:off x="13045320" y="192438"/>
+          <a:ext cx="18900720" cy="10763868"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -457,23 +430,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>163286</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>391432</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>139245</xdr:rowOff>
+      <xdr:rowOff>160111</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>293007</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>27759</xdr:rowOff>
+      <xdr:colOff>357030</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>122464</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
+        <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C39D6DE-8EB4-45BC-AB7E-C1532CB3D834}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7C2311A-4273-44A9-AD60-01DAFBA0A5F4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -489,8 +462,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6259286" y="139245"/>
-          <a:ext cx="5330825" cy="6504760"/>
+          <a:off x="4078968" y="160111"/>
+          <a:ext cx="7000491" cy="7282996"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -799,22 +772,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AE2EDB6-F4C9-4E3F-9063-0CDA18A8B412}">
-  <dimension ref="A1:AR53"/>
+  <dimension ref="A1:AQ47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L45" sqref="L45"/>
+      <selection activeCell="M48" sqref="M48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16.453125" customWidth="1"/>
     <col min="2" max="2" width="14.7265625" customWidth="1"/>
-    <col min="3" max="3" width="21.1796875" customWidth="1"/>
-    <col min="4" max="4" width="21.36328125" customWidth="1"/>
-    <col min="9" max="9" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.36328125" customWidth="1"/>
+    <col min="8" max="8" width="12.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -822,13 +794,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -836,13 +805,10 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -850,13 +816,10 @@
         <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -864,13 +827,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -878,13 +838,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -892,13 +849,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -906,13 +860,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -920,13 +871,10 @@
         <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -934,13 +882,10 @@
         <v>7</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -948,13 +893,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -962,13 +904,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -976,13 +915,10 @@
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -990,13 +926,10 @@
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1004,13 +937,10 @@
         <v>7</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1018,13 +948,10 @@
         <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1032,13 +959,10 @@
         <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1046,13 +970,10 @@
         <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1060,13 +981,10 @@
         <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -1074,13 +992,10 @@
         <v>7</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1088,13 +1003,10 @@
         <v>17</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1102,13 +1014,10 @@
         <v>18</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1116,13 +1025,10 @@
         <v>19</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -1130,13 +1036,10 @@
         <v>7</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1144,13 +1047,10 @@
         <v>20</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1158,13 +1058,10 @@
         <v>21</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -1172,13 +1069,10 @@
         <v>7</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1186,13 +1080,10 @@
         <v>22</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1200,13 +1091,10 @@
         <v>24</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1214,13 +1102,10 @@
         <v>23</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -1228,13 +1113,10 @@
         <v>7</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1242,13 +1124,10 @@
         <v>25</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1256,13 +1135,10 @@
         <v>26</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="33" spans="1:44" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1270,13 +1146,10 @@
         <v>27</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="34" spans="1:44" x14ac:dyDescent="0.35">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1284,13 +1157,10 @@
         <v>28</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="35" spans="1:44" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -1298,13 +1168,10 @@
         <v>7</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="36" spans="1:44" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -1312,13 +1179,10 @@
         <v>29</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="37" spans="1:44" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -1326,13 +1190,10 @@
         <v>38</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38" spans="1:44" x14ac:dyDescent="0.35">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -1340,13 +1201,10 @@
         <v>30</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39" spans="1:44" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -1354,13 +1212,10 @@
         <v>31</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="40" spans="1:44" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -1368,13 +1223,10 @@
         <v>7</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="41" spans="1:44" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -1382,13 +1234,10 @@
         <v>32</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="42" spans="1:44" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -1396,25 +1245,19 @@
         <v>33</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="43" spans="1:44" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A43" s="4">
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C43" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D43" s="4"/>
-    </row>
-    <row r="44" spans="1:44" x14ac:dyDescent="0.35">
+      <c r="C43" s="4"/>
+    </row>
+    <row r="44" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -1422,13 +1265,10 @@
         <v>35</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="45" spans="1:44" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -1436,49 +1276,28 @@
         <v>7</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="46" spans="1:44" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A46" s="4">
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C46" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D46" s="4"/>
-    </row>
-    <row r="47" spans="1:44" x14ac:dyDescent="0.35">
+      <c r="C46" s="4"/>
+    </row>
+    <row r="47" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A47" s="4">
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C47" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D47" s="4"/>
-      <c r="AR47" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="52" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I52">
-        <f>3.14*100*15*10^-9</f>
-        <v>4.7100000000000006E-6</v>
-      </c>
-    </row>
-    <row r="53" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I53">
-        <f>1/I52</f>
-        <v>212314.22505307852</v>
+      <c r="C47" s="4"/>
+      <c r="AQ47" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/SPIN_Inverter_PIN_Mapping.xlsx
+++ b/SPIN_Inverter_PIN_Mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\twalter\Local\Inverter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC0D8979-20A3-407D-A349-F64046172CDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2DF9BF3-A65C-460C-9BC9-BC897F6657BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{10335776-0D9B-485B-BFEC-E4BDD3F10738}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="71">
   <si>
     <t>PIN number</t>
   </si>
@@ -217,9 +217,6 @@
   </si>
   <si>
     <t>HRTIM1_CHE2</t>
-  </si>
-  <si>
-    <t>VPhase3_sense</t>
   </si>
   <si>
     <t>VPhase2_sense</t>
@@ -774,8 +771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AE2EDB6-F4C9-4E3F-9063-0CDA18A8B412}">
   <dimension ref="A1:AQ47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M48" sqref="M48"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -794,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -805,7 +802,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -948,7 +945,7 @@
         <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -1014,7 +1011,7 @@
         <v>18</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
@@ -1124,7 +1121,7 @@
         <v>25</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
@@ -1135,7 +1132,7 @@
         <v>26</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:43" x14ac:dyDescent="0.35">
@@ -1146,7 +1143,7 @@
         <v>27</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:43" x14ac:dyDescent="0.35">
@@ -1157,7 +1154,7 @@
         <v>28</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:43" x14ac:dyDescent="0.35">
@@ -1179,7 +1176,7 @@
         <v>29</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:43" x14ac:dyDescent="0.35">
@@ -1190,7 +1187,7 @@
         <v>38</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:43" x14ac:dyDescent="0.35">
@@ -1212,7 +1209,7 @@
         <v>31</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:43" x14ac:dyDescent="0.35">
